--- a/boards.xlsx
+++ b/boards.xlsx
@@ -226,25 +226,9 @@
     <t xml:space="preserve">http://accesio.com/?p=/104e/104e-mpcie-4a.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Converts one PCIE X1 Lane from stack into four (1 X 4) PCI-Express Mini Card Sockets
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">bottom or top stack connector
+    <t xml:space="preserve">Converts one PCIE X1 Lane from stack into four (1 X 4) PCI-Express Mini Card Sockets
+bottom or top stack connector
 Type-2 connector</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">E104-MPE-04
@@ -254,26 +238,10 @@
     <t xml:space="preserve">http://www.diamondsystems.com/products/e104mpe</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4 ports on the same side
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Converts one PCIE X1 Lane from stack into four (1 X 4) PCI-Express Mini Card Sockets
+    <t xml:space="preserve">4 ports on the same side
+Converts one PCIE X1 Lane from stack into four (1 X 4) PCI-Express Mini Card Sockets
 bottom and top stack connector
 One bank connector</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">AMP Ltd</t>
@@ -288,25 +256,9 @@
     <t xml:space="preserve">BridgeX-mPCIe-EXT</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Converts one PCIE X1 Lane from stack into four (1 X 4) PCI-Express Mini Card Sockets
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">bottom and top stack connector
+    <t xml:space="preserve">Converts one PCIE X1 Lane from stack into four (1 X 4) PCI-Express Mini Card Sockets
+bottom and top stack connector
 One bank connector</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">UK</t>
@@ -355,6 +307,24 @@
     <t xml:space="preserve">XDG021</t>
   </si>
   <si>
+    <t xml:space="preserve">Extender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADG038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://connecttech.com/product/pcie104-bus-extender/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCIe-104-SB15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rtd.com/Accessories/PC104spacers.htm</t>
+  </si>
+  <si>
     <t xml:space="preserve">GbE</t>
   </si>
   <si>
@@ -431,9 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">PXG105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTD</t>
   </si>
   <si>
     <t xml:space="preserve">IATX25110HR-L100W</t>
@@ -657,21 +624,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.avermedia.com/professional/product/cm313bw/overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADG038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://connecttech.com/product/pcie104-bus-extender/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCIe-104-SB15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rtd.com/Accessories/PC104spacers.htm</t>
   </si>
 </sst>
 </file>
@@ -682,7 +634,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -717,11 +669,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -766,7 +713,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -799,15 +746,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -834,8 +773,8 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -844,8 +783,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="45.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.39"/>
@@ -1297,10 +1236,10 @@
       <c r="E15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I15" s="4" t="n">
@@ -1323,10 +1262,10 @@
       <c r="E16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>87</v>
       </c>
       <c r="I16" s="4" t="n">
@@ -1367,25 +1306,25 @@
         <v>92</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,449 +1332,446 @@
         <v>92</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="4" t="n">
-        <v>249</v>
-      </c>
       <c r="J19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J20" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="4" t="n">
-        <v>984</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="K21" s="5"/>
+        <v>249</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="4" t="n">
+        <v>984</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>18</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>112</v>
+      <c r="E24" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>64</v>
+      <c r="J25" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="J26" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="B27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="4" t="n">
-        <v>1195</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="D27" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="E27" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="10" t="n">
-        <v>630</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>18</v>
+      <c r="I27" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="F28" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>1195</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="B29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="D29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I28" s="4" t="n">
-        <v>2650</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="4" t="n">
-        <v>3150</v>
+      <c r="G29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="8" t="n">
+        <v>630</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>135</v>
+      <c r="I30" s="4" t="n">
+        <v>2650</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>77</v>
+        <v>103</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
       <c r="I31" s="4" t="n">
-        <v>4733</v>
+        <v>3150</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="I32" s="4" t="n">
-        <v>2500</v>
-      </c>
       <c r="J32" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="4" t="n">
-        <v>2995</v>
+        <v>4733</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>148</v>
+      <c r="E34" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>2500</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>150</v>
+        <v>103</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>154</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="4" t="n">
-        <v>2588</v>
+        <v>2995</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>1</v>
@@ -1843,65 +1779,77 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>156</v>
+      <c r="E36" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F37" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>159</v>
       </c>
+      <c r="I37" s="4" t="n">
+        <v>2588</v>
+      </c>
       <c r="J37" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="0" t="s">
+      <c r="F38" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>18</v>
@@ -1909,58 +1857,42 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>164</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="0" t="s">
+      <c r="B40" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="J39" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="D40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="I40" s="4" t="n">
-        <v>100</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>18</v>
@@ -1968,81 +1900,78 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="0" t="s">
+      <c r="J41" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="D42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J41" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="F42" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="0" t="s">
+      <c r="H42" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
       <c r="I42" s="4" t="n">
-        <v>16130</v>
+        <v>100</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="4" t="n">
-        <v>16880</v>
-      </c>
       <c r="J43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,22 +1979,30 @@
         <v>180</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="D44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>182</v>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="4" t="n">
+        <v>16130</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>97</v>
+        <v>18</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,123 +2010,127 @@
         <v>180</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C45" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="4" t="n">
-        <v>1023.5</v>
+        <v>16880</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>187</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>188</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="I46" s="4" t="n">
-        <v>2144.75</v>
+        <v>187</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46" s="0" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="F47" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G47" s="8"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="4" t="n">
+        <v>1023.5</v>
+      </c>
       <c r="J47" s="0" t="s">
-        <v>97</v>
+        <v>77</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>194</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>125</v>
+        <v>2144.75</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>196</v>
@@ -2200,14 +2141,12 @@
       <c r="E49" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I49" s="4" t="n">
-        <v>99</v>
-      </c>
+      <c r="G49" s="6"/>
       <c r="J49" s="0" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2232,49 +2171,49 @@
     <hyperlink ref="E15" r:id="rId18" display="https://www.acromag.com/catalog/1159/embedded-io-processors/acropack-mini-pcie-based-io-modules/digital-io/ap400-series"/>
     <hyperlink ref="E16" r:id="rId19" display="https://accesio.com/?p=../mpcie/mpcie-idio-8.html"/>
     <hyperlink ref="E17" r:id="rId20" display="http://connecttech.com/product/xtremegbe-managed-carrier-ethernet-switch/"/>
-    <hyperlink ref="E18" r:id="rId21" display="https://www.innodisk.com/en/products/embedded-peripheral/communication/EMPL-G202"/>
-    <hyperlink ref="E19" r:id="rId22" display="http://www.perfectron.com/products/Peripheral_Module/PCIe/MT321.html"/>
-    <hyperlink ref="K19" r:id="rId23" display="https://www.noyabilgisayar.com/"/>
-    <hyperlink ref="E20" r:id="rId24" display="http://www.perfectron.com/products/PCIe104&amp;StackPC_Peripherals/SK506.html"/>
-    <hyperlink ref="K20" r:id="rId25" display="https://www.noyabilgisayar.com/"/>
-    <hyperlink ref="E21" r:id="rId26" display="https://www.versalogic.com/E5"/>
-    <hyperlink ref="E22" r:id="rId27" display="https://www.acromag.com/catalog/1111/embedded-io-processors/acropack-mini-pcie-based-io-modules"/>
-    <hyperlink ref="E23" r:id="rId28" display="http://accesio.com/?p=../cat/mpcie.html"/>
-    <hyperlink ref="E24" r:id="rId29" display="http://www.tews.com/"/>
-    <hyperlink ref="E25" r:id="rId30" display="http://connecttech.com/product/xtremepsu-isolated-power-supply/"/>
-    <hyperlink ref="E26" r:id="rId31" display="https://www.rtd.com/PC104/UM/power/IATXx5110.htm"/>
-    <hyperlink ref="E27" r:id="rId32" display="https://www.acromag.com/catalog/1158/embedded-io-processors/acropack-mini-pcie-based-io-modules/digital-io/ap400-series"/>
-    <hyperlink ref="E28" r:id="rId33" display="https://www.adlinktech.com/Products/PC104SBCs/PCI104-Express/CoreModule_920?lang=en"/>
-    <hyperlink ref="K28" r:id="rId34" display="http://www.akdagmuh.com/"/>
-    <hyperlink ref="E29" r:id="rId35" display="https://www.adlinktech.com/Products/PC104SBCs/PCI104-Express/CMx-SLx?lang=en"/>
-    <hyperlink ref="K29" r:id="rId36" display="http://www.akdagmuh.com/"/>
-    <hyperlink ref="E30" r:id="rId37" display="https://www.ampltd.com/products/pc104-sbc-tinyatom/"/>
-    <hyperlink ref="E31" r:id="rId38" display="http://www.perfectron.com/products/embedded/EPIC/OXY5638B-Technical.html"/>
-    <hyperlink ref="K31" r:id="rId39" display="https://www.noyabilgisayar.com/"/>
-    <hyperlink ref="E32" r:id="rId40" display="http://www.perfectron.com/products/embedded/StackPC/OXY5535B.html"/>
-    <hyperlink ref="K32" r:id="rId41" display="https://www.noyabilgisayar.com/"/>
-    <hyperlink ref="E33" r:id="rId42" display="https://www.rtd.com/PC104/CM/CMA34CR/CMA34CR.htm"/>
-    <hyperlink ref="K33" r:id="rId43" display="http://target.com.tr/tr"/>
-    <hyperlink ref="E34" r:id="rId44" display="https://www.terratel.eu/pc104-intel-atom-e3800-cpu.html"/>
-    <hyperlink ref="E35" r:id="rId45" display="https://versalogic.com/Lion"/>
-    <hyperlink ref="E36" r:id="rId46" display="https://www.versalogic.com/Bengal"/>
-    <hyperlink ref="E37" r:id="rId47" display="https://www.winsystems.com/product/px1-c415/"/>
-    <hyperlink ref="E38" r:id="rId48" display="https://accesio.com/?p=../mpcie/mpcie-com-4sm.html"/>
-    <hyperlink ref="E39" r:id="rId49" display="https://www.innodisk.com/en/products/embedded-peripheral/communication/EMP2-X402"/>
-    <hyperlink ref="E40" r:id="rId50" display="https://www.versalogic.com/products/DS.asp?ProductID=236"/>
-    <hyperlink ref="E41" r:id="rId51" display="https://www.innodisk.com/en/products/flash-storage"/>
-    <hyperlink ref="E42" r:id="rId52" display="https://rtdstacknet.com/hdp1011"/>
-    <hyperlink ref="K42" r:id="rId53" display="http://target.com.tr/tr"/>
-    <hyperlink ref="E43" r:id="rId54" display="https://rtdstacknet.com/hdp1011"/>
-    <hyperlink ref="K43" r:id="rId55" display="http://target.com.tr/tr"/>
-    <hyperlink ref="E44" r:id="rId56" display="http://www.advantech.com/products/video_capture_board/dvp-7016he/mod_d08779c4-b99e-45fc-8ef0-509a1ee72f97"/>
-    <hyperlink ref="E45" r:id="rId57" display="https://www.ampltd.com/products/mini-pcie-h264-nanoh264-hd"/>
-    <hyperlink ref="K45" r:id="rId58" display="http://www.tektronik.com.tr/"/>
-    <hyperlink ref="E46" r:id="rId59" display="https://www.ampltd.com/products/pc104-h264-h264-hd-2sdi/"/>
-    <hyperlink ref="K46" r:id="rId60" display="http://www.tektronik.com.tr/"/>
-    <hyperlink ref="E47" r:id="rId61" display="https://www.avermedia.com/professional/product/cm313bw/overview"/>
-    <hyperlink ref="E48" r:id="rId62" display="http://connecttech.com/product/pcie104-bus-extender/"/>
-    <hyperlink ref="E49" r:id="rId63" display="https://www.rtd.com/Accessories/PC104spacers.htm"/>
+    <hyperlink ref="E18" r:id="rId21" display="http://connecttech.com/product/pcie104-bus-extender/"/>
+    <hyperlink ref="E19" r:id="rId22" display="https://www.rtd.com/Accessories/PC104spacers.htm"/>
+    <hyperlink ref="E20" r:id="rId23" display="https://www.innodisk.com/en/products/embedded-peripheral/communication/EMPL-G202"/>
+    <hyperlink ref="E21" r:id="rId24" display="http://www.perfectron.com/products/Peripheral_Module/PCIe/MT321.html"/>
+    <hyperlink ref="K21" r:id="rId25" display="https://www.noyabilgisayar.com/"/>
+    <hyperlink ref="E22" r:id="rId26" display="http://www.perfectron.com/products/PCIe104&amp;StackPC_Peripherals/SK506.html"/>
+    <hyperlink ref="K22" r:id="rId27" display="https://www.noyabilgisayar.com/"/>
+    <hyperlink ref="E23" r:id="rId28" display="https://www.versalogic.com/E5"/>
+    <hyperlink ref="E24" r:id="rId29" display="https://www.acromag.com/catalog/1111/embedded-io-processors/acropack-mini-pcie-based-io-modules"/>
+    <hyperlink ref="E25" r:id="rId30" display="http://accesio.com/?p=../cat/mpcie.html"/>
+    <hyperlink ref="E26" r:id="rId31" display="http://www.tews.com/"/>
+    <hyperlink ref="E27" r:id="rId32" display="http://connecttech.com/product/xtremepsu-isolated-power-supply/"/>
+    <hyperlink ref="E28" r:id="rId33" display="https://www.rtd.com/PC104/UM/power/IATXx5110.htm"/>
+    <hyperlink ref="E29" r:id="rId34" display="https://www.acromag.com/catalog/1158/embedded-io-processors/acropack-mini-pcie-based-io-modules/digital-io/ap400-series"/>
+    <hyperlink ref="E30" r:id="rId35" display="https://www.adlinktech.com/Products/PC104SBCs/PCI104-Express/CoreModule_920?lang=en"/>
+    <hyperlink ref="K30" r:id="rId36" display="http://www.akdagmuh.com/"/>
+    <hyperlink ref="E31" r:id="rId37" display="https://www.adlinktech.com/Products/PC104SBCs/PCI104-Express/CMx-SLx?lang=en"/>
+    <hyperlink ref="K31" r:id="rId38" display="http://www.akdagmuh.com/"/>
+    <hyperlink ref="E32" r:id="rId39" display="https://www.ampltd.com/products/pc104-sbc-tinyatom/"/>
+    <hyperlink ref="E33" r:id="rId40" display="http://www.perfectron.com/products/embedded/EPIC/OXY5638B-Technical.html"/>
+    <hyperlink ref="K33" r:id="rId41" display="https://www.noyabilgisayar.com/"/>
+    <hyperlink ref="E34" r:id="rId42" display="http://www.perfectron.com/products/embedded/StackPC/OXY5535B.html"/>
+    <hyperlink ref="K34" r:id="rId43" display="https://www.noyabilgisayar.com/"/>
+    <hyperlink ref="E35" r:id="rId44" display="https://www.rtd.com/PC104/CM/CMA34CR/CMA34CR.htm"/>
+    <hyperlink ref="K35" r:id="rId45" display="http://target.com.tr/tr"/>
+    <hyperlink ref="E36" r:id="rId46" display="https://www.terratel.eu/pc104-intel-atom-e3800-cpu.html"/>
+    <hyperlink ref="E37" r:id="rId47" display="https://versalogic.com/Lion"/>
+    <hyperlink ref="E38" r:id="rId48" display="https://www.versalogic.com/Bengal"/>
+    <hyperlink ref="E39" r:id="rId49" display="https://www.winsystems.com/product/px1-c415/"/>
+    <hyperlink ref="E40" r:id="rId50" display="https://accesio.com/?p=../mpcie/mpcie-com-4sm.html"/>
+    <hyperlink ref="E41" r:id="rId51" display="https://www.innodisk.com/en/products/embedded-peripheral/communication/EMP2-X402"/>
+    <hyperlink ref="E42" r:id="rId52" display="https://www.versalogic.com/products/DS.asp?ProductID=236"/>
+    <hyperlink ref="E43" r:id="rId53" display="https://www.innodisk.com/en/products/flash-storage"/>
+    <hyperlink ref="E44" r:id="rId54" display="https://rtdstacknet.com/hdp1011"/>
+    <hyperlink ref="K44" r:id="rId55" display="http://target.com.tr/tr"/>
+    <hyperlink ref="E45" r:id="rId56" display="https://rtdstacknet.com/hdp1011"/>
+    <hyperlink ref="K45" r:id="rId57" display="http://target.com.tr/tr"/>
+    <hyperlink ref="E46" r:id="rId58" display="http://www.advantech.com/products/video_capture_board/dvp-7016he/mod_d08779c4-b99e-45fc-8ef0-509a1ee72f97"/>
+    <hyperlink ref="E47" r:id="rId59" display="https://www.ampltd.com/products/mini-pcie-h264-nanoh264-hd"/>
+    <hyperlink ref="K47" r:id="rId60" display="http://www.tektronik.com.tr/"/>
+    <hyperlink ref="E48" r:id="rId61" display="https://www.ampltd.com/products/pc104-h264-h264-hd-2sdi/"/>
+    <hyperlink ref="K48" r:id="rId62" display="http://www.tektronik.com.tr/"/>
+    <hyperlink ref="E49" r:id="rId63" display="https://www.avermedia.com/professional/product/cm313bw/overview"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/boards.xlsx
+++ b/boards.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="202">
   <si>
     <t xml:space="preserve">Product Type</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Price</t>
   </si>
   <si>
+    <t xml:space="preserve">Cable Set Price</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nation</t>
   </si>
   <si>
@@ -172,6 +175,12 @@
     <t xml:space="preserve">8 single ended, 4 differential in and outs</t>
   </si>
   <si>
+    <t xml:space="preserve">£355.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£50.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Audio</t>
   </si>
   <si>
@@ -211,7 +220,8 @@
     <t xml:space="preserve">ADG080</t>
   </si>
   <si>
-    <t xml:space="preserve">Only bottom stack connector</t>
+    <t xml:space="preserve">Only bottom stack connector
+Type-2 connector</t>
   </si>
   <si>
     <t xml:space="preserve">Canada</t>
@@ -371,6 +381,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.versalogic.com/E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VL-CBR-1604</t>
   </si>
   <si>
     <t xml:space="preserve">General</t>
@@ -634,12 +647,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -658,28 +670,145 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -687,8 +816,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -712,13 +856,64 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,7 +921,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -734,8 +929,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -746,23 +945,96 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -771,10 +1043,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -783,18 +1055,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="37.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="45.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,31 +1114,35 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1553</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>4000</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>18</v>
+      <c r="J2" s="4"/>
+      <c r="K2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,28 +1150,29 @@
         <v>1553</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>4000</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
+      <c r="J3" s="4"/>
+      <c r="K3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,22 +1180,22 @@
         <v>1553</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,30 +1203,31 @@
         <v>1553</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>6000</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="0" t="n">
+      <c r="J5" s="4"/>
+      <c r="K5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -957,30 +1236,31 @@
         <v>1553</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4" t="n">
         <v>3500</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="J6" s="4"/>
+      <c r="K6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,1181 +1269,1236 @@
         <v>1553</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>4000</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>18</v>
+      <c r="J7" s="4"/>
+      <c r="K7" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>18</v>
+        <v>52</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="J10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="J10" s="4"/>
+      <c r="K10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="0" t="n">
+      <c r="J11" s="4"/>
+      <c r="K11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>459</v>
       </c>
-      <c r="J12" s="0" t="s">
-        <v>18</v>
+      <c r="J12" s="4"/>
+      <c r="K12" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="0" t="s">
         <v>77</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>585</v>
       </c>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>78</v>
+      <c r="A16" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>259</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>18</v>
+      <c r="J16" s="4"/>
+      <c r="K16" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>64</v>
+      <c r="J17" s="4"/>
+      <c r="K17" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>125</v>
       </c>
-      <c r="J18" s="0" t="s">
-        <v>64</v>
+      <c r="J18" s="4"/>
+      <c r="K18" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="J19" s="0" t="s">
-        <v>18</v>
+      <c r="J19" s="4"/>
+      <c r="K19" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>103</v>
+      <c r="J20" s="4"/>
+      <c r="K20" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="4" t="n">
         <v>249</v>
       </c>
-      <c r="J21" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L21" s="0" t="n">
+      <c r="J21" s="4"/>
+      <c r="K21" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="4" t="n">
         <v>984</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>108</v>
+      <c r="J22" s="4"/>
+      <c r="K22" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="J23" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>18</v>
+        <v>119</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>18</v>
+        <v>120</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>56</v>
+        <v>122</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>64</v>
+      <c r="J27" s="4"/>
+      <c r="K27" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I28" s="4" t="n">
         <v>1195</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="4"/>
+      <c r="K28" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="8" t="n">
+        <v>132</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="6" t="n">
         <v>630</v>
       </c>
-      <c r="J29" s="0" t="s">
-        <v>18</v>
+      <c r="J29" s="6"/>
+      <c r="K29" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I30" s="4" t="n">
         <v>2650</v>
       </c>
-      <c r="J30" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>32</v>
+      <c r="J30" s="4"/>
+      <c r="K30" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I31" s="4" t="n">
         <v>3150</v>
       </c>
-      <c r="J31" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>32</v>
+      <c r="J31" s="4"/>
+      <c r="K31" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>77</v>
+        <v>144</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="4" t="n">
         <v>4733</v>
       </c>
-      <c r="J33" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>108</v>
+      <c r="J33" s="4"/>
+      <c r="K33" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I34" s="4" t="n">
         <v>2500</v>
       </c>
-      <c r="J34" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>108</v>
+      <c r="J34" s="4"/>
+      <c r="K34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="4" t="n">
         <v>2995</v>
       </c>
-      <c r="J35" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L35" s="0" t="n">
+      <c r="J35" s="6"/>
+      <c r="K35" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I37" s="4" t="n">
         <v>2588</v>
       </c>
-      <c r="J37" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="0" t="n">
+      <c r="J37" s="4"/>
+      <c r="K37" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>18</v>
+        <v>166</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>1036.01</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>18</v>
+        <v>168</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>18</v>
+        <v>172</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="7"/>
       <c r="H41" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>103</v>
+        <v>176</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J42" s="0" t="s">
-        <v>18</v>
+      <c r="J42" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>103</v>
+        <v>183</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="4" t="n">
         <v>16130</v>
       </c>
-      <c r="J44" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>150</v>
+      <c r="J44" s="4"/>
+      <c r="K44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="4" t="n">
         <v>16880</v>
       </c>
-      <c r="J45" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>150</v>
+      <c r="J45" s="4"/>
+      <c r="K45" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>103</v>
+        <v>191</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="4" t="n">
         <v>1023.5</v>
       </c>
-      <c r="J47" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L47" s="0" t="n">
+      <c r="J47" s="4"/>
+      <c r="K47" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M47" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>2144.75</v>
       </c>
-      <c r="J48" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L48" s="0" t="n">
+      <c r="J48" s="4"/>
+      <c r="K48" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M48" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="J49" s="0" t="s">
-        <v>103</v>
+        <v>201</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="I49" s="6"/>
+      <c r="K49" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.abaco.com/products/r15-mpcie-interface"/>
     <hyperlink ref="E3" r:id="rId2" display="http://www.altadt.com/product/mpcie2-1553/"/>
-    <hyperlink ref="K3" r:id="rId3" display="http://savco.com.tr/"/>
+    <hyperlink ref="L3" r:id="rId3" display="http://savco.com.tr/"/>
     <hyperlink ref="E4" r:id="rId4" display="http://www.altadt.com/product/pc104e-ma4/"/>
     <hyperlink ref="E5" r:id="rId5" display="https://www.astronics.com/ballard-technology/embedded-interfaces/pe1000-pcie-104-pci-104-express-avionics-interface-cards"/>
-    <hyperlink ref="K5" r:id="rId6" display="http://www.akdagmuh.com/"/>
+    <hyperlink ref="L5" r:id="rId6" display="http://www.akdagmuh.com/"/>
     <hyperlink ref="E6" r:id="rId7" display="https://www.astronics.com/ballard-technology/embedded-interfaces/pe1000-pcie-104-pci-104-express-avionics-interface-cards"/>
-    <hyperlink ref="K6" r:id="rId8" display="http://www.akdagmuh.com/"/>
+    <hyperlink ref="L6" r:id="rId8" display="http://www.akdagmuh.com/"/>
     <hyperlink ref="E7" r:id="rId9" display="http://www.ddc-web.com/Products/245/Default.aspx"/>
     <hyperlink ref="E8" r:id="rId10" display="https://versalogic.com/products/DS.asp?ProductID=234"/>
     <hyperlink ref="E9" r:id="rId11" display="http://www.diamondsystems.com/products/dsmpedaq0804"/>
     <hyperlink ref="E10" r:id="rId12" display="http://www.dpie.com/mini-pcie/audio/men-mikro-px5"/>
-    <hyperlink ref="K10" r:id="rId13" display="http://www.tektronik.com.tr/"/>
+    <hyperlink ref="L10" r:id="rId13" display="http://www.tektronik.com.tr/"/>
     <hyperlink ref="E11" r:id="rId14" display="http://connecttech.com/product/pcie104-quad-mini-pciemsata/"/>
     <hyperlink ref="E12" r:id="rId15" display="http://accesio.com/?p=/104e/104e-mpcie-4a.html"/>
     <hyperlink ref="E13" r:id="rId16" display="http://www.diamondsystems.com/products/e104mpe"/>
@@ -2175,9 +2510,9 @@
     <hyperlink ref="E19" r:id="rId22" display="https://www.rtd.com/Accessories/PC104spacers.htm"/>
     <hyperlink ref="E20" r:id="rId23" display="https://www.innodisk.com/en/products/embedded-peripheral/communication/EMPL-G202"/>
     <hyperlink ref="E21" r:id="rId24" display="http://www.perfectron.com/products/Peripheral_Module/PCIe/MT321.html"/>
-    <hyperlink ref="K21" r:id="rId25" display="https://www.noyabilgisayar.com/"/>
+    <hyperlink ref="L21" r:id="rId25" display="https://www.noyabilgisayar.com/"/>
     <hyperlink ref="E22" r:id="rId26" display="http://www.perfectron.com/products/PCIe104&amp;StackPC_Peripherals/SK506.html"/>
-    <hyperlink ref="K22" r:id="rId27" display="https://www.noyabilgisayar.com/"/>
+    <hyperlink ref="L22" r:id="rId27" display="https://www.noyabilgisayar.com/"/>
     <hyperlink ref="E23" r:id="rId28" display="https://www.versalogic.com/E5"/>
     <hyperlink ref="E24" r:id="rId29" display="https://www.acromag.com/catalog/1111/embedded-io-processors/acropack-mini-pcie-based-io-modules"/>
     <hyperlink ref="E25" r:id="rId30" display="http://accesio.com/?p=../cat/mpcie.html"/>
@@ -2186,16 +2521,16 @@
     <hyperlink ref="E28" r:id="rId33" display="https://www.rtd.com/PC104/UM/power/IATXx5110.htm"/>
     <hyperlink ref="E29" r:id="rId34" display="https://www.acromag.com/catalog/1158/embedded-io-processors/acropack-mini-pcie-based-io-modules/digital-io/ap400-series"/>
     <hyperlink ref="E30" r:id="rId35" display="https://www.adlinktech.com/Products/PC104SBCs/PCI104-Express/CoreModule_920?lang=en"/>
-    <hyperlink ref="K30" r:id="rId36" display="http://www.akdagmuh.com/"/>
+    <hyperlink ref="L30" r:id="rId36" display="http://www.akdagmuh.com/"/>
     <hyperlink ref="E31" r:id="rId37" display="https://www.adlinktech.com/Products/PC104SBCs/PCI104-Express/CMx-SLx?lang=en"/>
-    <hyperlink ref="K31" r:id="rId38" display="http://www.akdagmuh.com/"/>
+    <hyperlink ref="L31" r:id="rId38" display="http://www.akdagmuh.com/"/>
     <hyperlink ref="E32" r:id="rId39" display="https://www.ampltd.com/products/pc104-sbc-tinyatom/"/>
     <hyperlink ref="E33" r:id="rId40" display="http://www.perfectron.com/products/embedded/EPIC/OXY5638B-Technical.html"/>
-    <hyperlink ref="K33" r:id="rId41" display="https://www.noyabilgisayar.com/"/>
+    <hyperlink ref="L33" r:id="rId41" display="https://www.noyabilgisayar.com/"/>
     <hyperlink ref="E34" r:id="rId42" display="http://www.perfectron.com/products/embedded/StackPC/OXY5535B.html"/>
-    <hyperlink ref="K34" r:id="rId43" display="https://www.noyabilgisayar.com/"/>
+    <hyperlink ref="L34" r:id="rId43" display="https://www.noyabilgisayar.com/"/>
     <hyperlink ref="E35" r:id="rId44" display="https://www.rtd.com/PC104/CM/CMA34CR/CMA34CR.htm"/>
-    <hyperlink ref="K35" r:id="rId45" display="http://target.com.tr/tr"/>
+    <hyperlink ref="L35" r:id="rId45" display="http://target.com.tr/tr"/>
     <hyperlink ref="E36" r:id="rId46" display="https://www.terratel.eu/pc104-intel-atom-e3800-cpu.html"/>
     <hyperlink ref="E37" r:id="rId47" display="https://versalogic.com/Lion"/>
     <hyperlink ref="E38" r:id="rId48" display="https://www.versalogic.com/Bengal"/>
@@ -2205,14 +2540,14 @@
     <hyperlink ref="E42" r:id="rId52" display="https://www.versalogic.com/products/DS.asp?ProductID=236"/>
     <hyperlink ref="E43" r:id="rId53" display="https://www.innodisk.com/en/products/flash-storage"/>
     <hyperlink ref="E44" r:id="rId54" display="https://rtdstacknet.com/hdp1011"/>
-    <hyperlink ref="K44" r:id="rId55" display="http://target.com.tr/tr"/>
+    <hyperlink ref="L44" r:id="rId55" display="http://target.com.tr/tr"/>
     <hyperlink ref="E45" r:id="rId56" display="https://rtdstacknet.com/hdp1011"/>
-    <hyperlink ref="K45" r:id="rId57" display="http://target.com.tr/tr"/>
+    <hyperlink ref="L45" r:id="rId57" display="http://target.com.tr/tr"/>
     <hyperlink ref="E46" r:id="rId58" display="http://www.advantech.com/products/video_capture_board/dvp-7016he/mod_d08779c4-b99e-45fc-8ef0-509a1ee72f97"/>
     <hyperlink ref="E47" r:id="rId59" display="https://www.ampltd.com/products/mini-pcie-h264-nanoh264-hd"/>
-    <hyperlink ref="K47" r:id="rId60" display="http://www.tektronik.com.tr/"/>
+    <hyperlink ref="L47" r:id="rId60" display="http://www.tektronik.com.tr/"/>
     <hyperlink ref="E48" r:id="rId61" display="https://www.ampltd.com/products/pc104-h264-h264-hd-2sdi/"/>
-    <hyperlink ref="K48" r:id="rId62" display="http://www.tektronik.com.tr/"/>
+    <hyperlink ref="L48" r:id="rId62" display="http://www.tektronik.com.tr/"/>
     <hyperlink ref="E49" r:id="rId63" display="https://www.avermedia.com/professional/product/cm313bw/overview"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
